--- a/Documentation/Process Whiteboard.xlsx
+++ b/Documentation/Process Whiteboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DT\Desktop\Coursera\UiPath-Projects\CalculateClient_SecurityHash\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A900AE8-84CD-47C0-B664-E2AA02FA26E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092153BC-31AA-4A4A-8CE9-F5BBC4BF10F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3720" windowWidth="22095" windowHeight="13140" xr2:uid="{240F317C-E894-4593-8F14-899E0DC81FAC}"/>
+    <workbookView xWindow="2250" yWindow="4275" windowWidth="22095" windowHeight="13140" xr2:uid="{240F317C-E894-4593-8F14-899E0DC81FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Process Name" sheetId="2" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
